--- a/Result/discussion_pram.xlsx
+++ b/Result/discussion_pram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Documents\SymTriNMF\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72450306-5911-4DE7-86F3-9C632F66D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24006485-888A-433E-862F-FD74F134653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6193C913-17FE-47EE-A09B-3BE1BD262B91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6193C913-17FE-47EE-A09B-3BE1BD262B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>n</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>SymNMF</t>
+  </si>
+  <si>
+    <t>symtrinouv</t>
   </si>
 </sst>
 </file>
@@ -3007,20 +3010,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DCFB86-6E5F-4CE4-95BD-C8158E010CD5}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3036,8 +3039,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>361</v>
       </c>
@@ -3056,8 +3062,12 @@
         <f>A3*B3</f>
         <v>1083</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>2*A3</f>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>361</v>
       </c>
@@ -3065,19 +3075,23 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C10" si="0">0.5*(B4-1)*B4+2*A4</f>
+        <f t="shared" ref="C4:C9" si="0">0.5*(B4-1)*B4+2*A4</f>
         <v>732</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D12" si="1">E4+2*A4</f>
+        <f t="shared" ref="D4:D11" si="1">E4+2*A4</f>
         <v>2527</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E10" si="2">A4*B4</f>
+        <f t="shared" ref="E4:E9" si="2">A4*B4</f>
         <v>1805</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="3">2*A4</f>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>361</v>
       </c>
@@ -3096,8 +3110,12 @@
         <f t="shared" si="2"/>
         <v>2888</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>361</v>
       </c>
@@ -3116,8 +3134,12 @@
         <f t="shared" si="2"/>
         <v>4332</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>361</v>
       </c>
@@ -3136,8 +3158,12 @@
         <f t="shared" si="2"/>
         <v>7220</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>361</v>
       </c>
@@ -3156,8 +3182,12 @@
         <f t="shared" si="2"/>
         <v>10830</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>361</v>
       </c>
@@ -3176,8 +3206,12 @@
         <f t="shared" si="2"/>
         <v>14440</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>361</v>
       </c>
@@ -3196,8 +3230,12 @@
         <f>A10*B10</f>
         <v>722</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>361</v>
       </c>
@@ -3216,8 +3254,12 @@
         <f>A11*B11</f>
         <v>9025</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>361</v>
       </c>
@@ -3236,8 +3278,12 @@
         <f>A12*B12</f>
         <v>18050</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3253,8 +3299,11 @@
       <c r="H15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -3267,28 +3316,28 @@
         <v>1.67</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C23" si="3">(100-B17)/C3</f>
+        <f t="shared" ref="C17:C23" si="4">(100-B17)/C3</f>
         <v>0.13562758620689655</v>
       </c>
       <c r="D17">
         <v>1.76</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E23" si="4">(100-D17)/C3</f>
+        <f t="shared" ref="E17:E23" si="5">(100-D17)/C3</f>
         <v>0.13550344827586205</v>
       </c>
       <c r="F17">
         <v>1.53</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G23" si="5">(100-F17)/D3</f>
+        <f t="shared" ref="G17:G23" si="6">(100-F17)/D3</f>
         <v>5.4554016620498615E-2</v>
       </c>
       <c r="H17">
         <v>1.05</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I23" si="6">(100-H17)/E3</f>
+        <f t="shared" ref="I17:I23" si="7">(100-H17)/E3</f>
         <v>9.1366574330563249E-2</v>
       </c>
     </row>
@@ -3300,28 +3349,28 @@
         <v>1.53</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13452185792349727</v>
       </c>
       <c r="D18">
         <v>1.71</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13427595628415301</v>
       </c>
       <c r="F18">
         <v>1.39</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9022556390977445E-2</v>
       </c>
       <c r="H18">
         <v>0.66400000000000003</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.5033795013850417E-2</v>
       </c>
     </row>
@@ -3333,28 +3382,28 @@
         <v>1.35</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13153333333333334</v>
       </c>
       <c r="D19">
         <v>1.54</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13127999999999998</v>
       </c>
       <c r="F19">
         <v>1.1399999999999999</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7385041551246537E-2</v>
       </c>
       <c r="H19">
         <v>0.42199999999999999</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4479916897506929E-2</v>
       </c>
     </row>
@@ -3366,28 +3415,28 @@
         <v>1.25</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12531725888324874</v>
       </c>
       <c r="D20">
         <v>1.45</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12506345177664974</v>
       </c>
       <c r="F20">
         <v>1.03</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9582508903838544E-2</v>
       </c>
       <c r="H20">
         <v>0.30199999999999999</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3014312096029547E-2</v>
       </c>
     </row>
@@ -3399,28 +3448,28 @@
         <v>1.07</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10847587719298246</v>
       </c>
       <c r="D21">
         <v>1.25</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10827850877192982</v>
       </c>
       <c r="F21">
         <v>0.87</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2481742634097204E-2</v>
       </c>
       <c r="H21">
         <v>0.188</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3824376731301938E-2</v>
       </c>
     </row>
@@ -3432,28 +3481,28 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5610198789974071E-2</v>
       </c>
       <c r="D22">
         <v>1.08</v>
       </c>
       <c r="E22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.5496974935177189E-2</v>
       </c>
       <c r="F22">
         <v>0.75700000000000001</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.5909799168975062E-3</v>
       </c>
       <c r="H22">
         <v>0.11700000000000001</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.22280701754386E-3</v>
       </c>
     </row>
@@ -3465,28 +3514,28 @@
         <v>0.87</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5998668442077232E-2</v>
       </c>
       <c r="D23">
         <v>0.96199999999999997</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.593741677762982E-2</v>
       </c>
       <c r="F23">
         <v>0.68899999999999995</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5499934045640425E-3</v>
       </c>
       <c r="H23">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.9193905817174512E-3</v>
       </c>
     </row>
@@ -3533,19 +3582,19 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B30" si="7">C18</f>
+        <f t="shared" ref="B26:B30" si="8">C18</f>
         <v>0.13452185792349727</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C31" si="8">E18</f>
+        <f t="shared" ref="C26:C31" si="9">E18</f>
         <v>0.13427595628415301</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:D31" si="9">G18</f>
+        <f t="shared" ref="D26:D31" si="10">G18</f>
         <v>3.9022556390977445E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:E31" si="10">I18</f>
+        <f t="shared" ref="E26:E31" si="11">I18</f>
         <v>5.5033795013850417E-2</v>
       </c>
     </row>
@@ -3554,19 +3603,19 @@
         <v>8</v>
       </c>
       <c r="B27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13153333333333334</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13127999999999998</v>
       </c>
       <c r="D27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7385041551246537E-2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4479916897506929E-2</v>
       </c>
     </row>
@@ -3575,19 +3624,19 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12531725888324874</v>
       </c>
       <c r="C28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12506345177664974</v>
       </c>
       <c r="D28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9582508903838544E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3014312096029547E-2</v>
       </c>
     </row>
@@ -3596,19 +3645,19 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10847587719298246</v>
       </c>
       <c r="C29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10827850877192982</v>
       </c>
       <c r="D29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2481742634097204E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3824376731301938E-2</v>
       </c>
     </row>
@@ -3617,19 +3666,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5610198789974071E-2</v>
       </c>
       <c r="C30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5496974935177189E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5909799168975062E-3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.22280701754386E-3</v>
       </c>
     </row>
@@ -3642,15 +3691,15 @@
         <v>6.5998668442077232E-2</v>
       </c>
       <c r="C31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.593741677762982E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5499934045640425E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9193905817174512E-3</v>
       </c>
     </row>
@@ -3662,15 +3711,15 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <f>0.5*(B32-1)*B32+2*A32</f>
+        <f t="shared" ref="C32:C38" si="12">0.5*(B32-1)*B32+2*A32</f>
         <v>599</v>
       </c>
       <c r="D32">
-        <f>E32+2*A32</f>
+        <f t="shared" ref="D32:D38" si="13">E32+2*A32</f>
         <v>1196</v>
       </c>
       <c r="E32">
-        <f>A32*B32</f>
+        <f t="shared" ref="E32:E38" si="14">A32*B32</f>
         <v>598</v>
       </c>
     </row>
@@ -3682,15 +3731,15 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <f>0.5*(B33-1)*B33+2*A33</f>
+        <f t="shared" si="12"/>
         <v>608</v>
       </c>
       <c r="D33">
-        <f>E33+2*A33</f>
+        <f t="shared" si="13"/>
         <v>2093</v>
       </c>
       <c r="E33">
-        <f>A33*B33</f>
+        <f t="shared" si="14"/>
         <v>1495</v>
       </c>
     </row>
@@ -3702,15 +3751,15 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <f>0.5*(B34-1)*B34+2*A34</f>
+        <f t="shared" si="12"/>
         <v>643</v>
       </c>
       <c r="D34">
-        <f>E34+2*A34</f>
+        <f t="shared" si="13"/>
         <v>3588</v>
       </c>
       <c r="E34">
-        <f>A34*B34</f>
+        <f t="shared" si="14"/>
         <v>2990</v>
       </c>
     </row>
@@ -3722,15 +3771,15 @@
         <v>20</v>
       </c>
       <c r="C35">
-        <f>0.5*(B35-1)*B35+2*A35</f>
+        <f t="shared" si="12"/>
         <v>788</v>
       </c>
       <c r="D35">
-        <f>E35+2*A35</f>
+        <f t="shared" si="13"/>
         <v>6578</v>
       </c>
       <c r="E35">
-        <f>A35*B35</f>
+        <f t="shared" si="14"/>
         <v>5980</v>
       </c>
     </row>
@@ -3742,15 +3791,15 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <f>0.5*(B36-1)*B36+2*A36</f>
+        <f t="shared" si="12"/>
         <v>1033</v>
       </c>
       <c r="D36">
-        <f>E36+2*A36</f>
+        <f t="shared" si="13"/>
         <v>9568</v>
       </c>
       <c r="E36">
-        <f>A36*B36</f>
+        <f t="shared" si="14"/>
         <v>8970</v>
       </c>
     </row>
@@ -3762,15 +3811,15 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <f>0.5*(B37-1)*B37+2*A37</f>
+        <f t="shared" si="12"/>
         <v>1378</v>
       </c>
       <c r="D37">
-        <f>E37+2*A37</f>
+        <f t="shared" si="13"/>
         <v>12558</v>
       </c>
       <c r="E37">
-        <f>A37*B37</f>
+        <f t="shared" si="14"/>
         <v>11960</v>
       </c>
     </row>
@@ -3782,15 +3831,15 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <f>0.5*(B38-1)*B38+2*A38</f>
+        <f t="shared" si="12"/>
         <v>5548</v>
       </c>
       <c r="D38">
-        <f>E38+2*A38</f>
+        <f t="shared" si="13"/>
         <v>30498</v>
       </c>
       <c r="E38">
-        <f>A38*B38</f>
+        <f t="shared" si="14"/>
         <v>29900</v>
       </c>
     </row>
@@ -3857,28 +3906,28 @@
         <v>39.9</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:C46" si="11">(100-B43)/C34</f>
+        <f t="shared" ref="C43:C46" si="15">(100-B43)/C34</f>
         <v>9.3468118195956462E-2</v>
       </c>
       <c r="D43">
         <v>40.5</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E46" si="12">(100-D43)/C34</f>
+        <f t="shared" ref="E43:E46" si="16">(100-D43)/C34</f>
         <v>9.253499222395023E-2</v>
       </c>
       <c r="F43">
         <v>36</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G46" si="13">(100-F43)/D34</f>
+        <f t="shared" ref="G43:G46" si="17">(100-F43)/D34</f>
         <v>1.7837235228539576E-2</v>
       </c>
       <c r="H43">
         <v>28.6</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43:I46" si="14">(100-H43)/E34</f>
+        <f t="shared" ref="I43:I46" si="18">(100-H43)/E34</f>
         <v>2.387959866220736E-2</v>
       </c>
     </row>
@@ -3890,28 +3939,28 @@
         <v>30.9</v>
       </c>
       <c r="C44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8.7690355329949232E-2</v>
       </c>
       <c r="D44">
         <v>33.299999999999997</v>
       </c>
       <c r="E44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.4644670050761428E-2</v>
       </c>
       <c r="F44">
         <v>26.7</v>
       </c>
       <c r="G44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.114320462146549E-2</v>
       </c>
       <c r="H44">
         <v>16.5</v>
       </c>
       <c r="I44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.3963210702341137E-2</v>
       </c>
     </row>
@@ -3923,28 +3972,28 @@
         <v>28.5</v>
       </c>
       <c r="C45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.921587608906099E-2</v>
       </c>
       <c r="D45">
         <v>29.5</v>
       </c>
       <c r="E45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.8247821878025167E-2</v>
       </c>
       <c r="F45">
         <v>23.8</v>
       </c>
       <c r="G45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9640468227424755E-3</v>
       </c>
       <c r="H45">
         <v>12</v>
       </c>
       <c r="I45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.8104793756967675E-3</v>
       </c>
     </row>
@@ -3956,28 +4005,28 @@
         <v>25.4</v>
       </c>
       <c r="C46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.4136429608127715E-2</v>
       </c>
       <c r="D46">
         <v>26.4</v>
       </c>
       <c r="E46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5.341074020319303E-2</v>
       </c>
       <c r="F46">
         <v>21</v>
       </c>
       <c r="G46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.2908106386367259E-3</v>
       </c>
       <c r="H46">
         <v>9.4499999999999993</v>
       </c>
       <c r="I46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.571070234113712E-3</v>
       </c>
     </row>
@@ -4024,19 +4073,19 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:B54" si="15">C43</f>
+        <f t="shared" ref="B51:B54" si="19">C43</f>
         <v>9.3468118195956462E-2</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:C54" si="16">E43</f>
+        <f t="shared" ref="C51:C54" si="20">E43</f>
         <v>9.253499222395023E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D54" si="17">G43</f>
+        <f t="shared" ref="D51:D54" si="21">G43</f>
         <v>1.7837235228539576E-2</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E54" si="18">I43</f>
+        <f t="shared" ref="E51:E54" si="22">I43</f>
         <v>2.387959866220736E-2</v>
       </c>
     </row>
@@ -4045,19 +4094,19 @@
         <v>20</v>
       </c>
       <c r="B52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.7690355329949232E-2</v>
       </c>
       <c r="C52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8.4644670050761428E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.114320462146549E-2</v>
       </c>
       <c r="E52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1.3963210702341137E-2</v>
       </c>
     </row>
@@ -4066,19 +4115,19 @@
         <v>30</v>
       </c>
       <c r="B53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6.921587608906099E-2</v>
       </c>
       <c r="C53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6.8247821878025167E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7.9640468227424755E-3</v>
       </c>
       <c r="E53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9.8104793756967675E-3</v>
       </c>
     </row>
@@ -4087,19 +4136,19 @@
         <v>40</v>
       </c>
       <c r="B54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5.4136429608127715E-2</v>
       </c>
       <c r="C54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5.341074020319303E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.2908106386367259E-3</v>
       </c>
       <c r="E54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7.571070234113712E-3</v>
       </c>
     </row>

--- a/Result/discussion_pram.xlsx
+++ b/Result/discussion_pram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Documents\SymTriNMF\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24006485-888A-433E-862F-FD74F134653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1578DDBC-C2AC-426A-A439-6BA087C66F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6193C913-17FE-47EE-A09B-3BE1BD262B91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6193C913-17FE-47EE-A09B-3BE1BD262B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>n</t>
   </si>
@@ -72,87 +72,6 @@
     <t>TDT2</t>
   </si>
   <si>
-    <t>paramètres</t>
-  </si>
-  <si>
-    <t>erreur</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.949</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.818</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>1.76</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>0.962</t>
-  </si>
-  <si>
-    <t>0.898</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>SymNMF</t>
-  </si>
-  <si>
     <t>symtrinouv</t>
   </si>
 </sst>
@@ -160,19 +79,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,9 +108,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3012,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DCFB86-6E5F-4CE4-95BD-C8158E010CD5}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3040,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3300,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4160,10 +4072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E29B431-2539-4C5B-BDEF-F80775154597}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H14"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4171,359 +4083,241 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>0.5*(B2-1)*B2+2*A2</f>
+        <v>401</v>
+      </c>
+      <c r="D2">
+        <f>E2+2*A2</f>
+        <v>800</v>
+      </c>
+      <c r="E2">
+        <f>A2*B2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">0.5*(B3-1)*B3+2*A3</f>
+        <v>403</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">E3+2*A3</f>
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="2">A3*B3</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>723</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>723</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.9</v>
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>1444</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <v>722</v>
-      </c>
-      <c r="H5">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>725</v>
-      </c>
-      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
         <v>15</v>
       </c>
-      <c r="C6">
-        <v>725</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1805</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>1083</v>
-      </c>
-      <c r="H6">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>732</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>732</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>2527</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>1805</v>
-      </c>
-      <c r="H7">
-        <v>0.66400000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>750</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8">
-        <v>750</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3400</v>
       </c>
       <c r="E8">
-        <v>3610</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>2888</v>
-      </c>
-      <c r="H8">
-        <v>0.42199999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>788</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>788</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
+        <f>0.5*(B9-1)*B9+2*A9</f>
+        <v>835</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>6400</v>
       </c>
       <c r="E9">
-        <v>5054</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9">
-        <v>4332</v>
-      </c>
-      <c r="H9">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <f>A9*B9</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>912</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>912</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
+        <f>0.5*(B10-1)*B10+2*A10</f>
+        <v>1180</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>8400</v>
       </c>
       <c r="E10">
-        <v>7942</v>
-      </c>
-      <c r="F10">
-        <v>0.87</v>
-      </c>
-      <c r="G10">
-        <v>7220</v>
-      </c>
-      <c r="H10">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <f>A10*B10</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1022</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>1022</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
+        <f>0.5*(B11-1)*B11+2*A11</f>
+        <v>3560</v>
+      </c>
+      <c r="D11">
+        <f>E11+2*A11</f>
+        <v>16400</v>
       </c>
       <c r="E11">
-        <v>9747</v>
-      </c>
-      <c r="F11">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="G11">
-        <v>9025</v>
-      </c>
-      <c r="H11">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <f>A11*B11</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1157</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>1157</v>
+        <f>0.5*(B12-1)*B12+2*A12</f>
+        <v>5350</v>
       </c>
       <c r="D12">
-        <v>1.08</v>
+        <f>E12+2*A12</f>
+        <v>20400</v>
       </c>
       <c r="E12">
-        <v>11552</v>
-      </c>
-      <c r="F12">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="G12">
-        <v>10830</v>
-      </c>
-      <c r="H12">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1502</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>1502</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>15162</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13">
-        <v>14440</v>
-      </c>
-      <c r="H13">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1947</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>1947</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>18772</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14">
-        <v>18050</v>
-      </c>
-      <c r="H14">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24">
-        <v>5054</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25">
-        <v>7942</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26">
-        <v>9747</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27">
-        <v>11552</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28">
-        <v>15162</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29">
-        <v>18772</v>
+        <f>A12*B12</f>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>

--- a/Result/discussion_pram.xlsx
+++ b/Result/discussion_pram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Documents\SymTriNMF\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1578DDBC-C2AC-426A-A439-6BA087C66F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77538833-5F6B-4823-B5C4-E57FFA670189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6193C913-17FE-47EE-A09B-3BE1BD262B91}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{6193C913-17FE-47EE-A09B-3BE1BD262B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>n</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>symtrinouv</t>
+  </si>
+  <si>
+    <t>trisymnmf</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
                   <c:v>6.921587608906099E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4136429608127715E-2</c:v>
+                  <c:v>4.0921557871640153E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,7 +1032,7 @@
                   <c:v>6.8247821878025167E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.341074020319303E-2</c:v>
+                  <c:v>4.0373011519473395E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1114,7 @@
                   <c:v>7.9640468227424755E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2908106386367259E-3</c:v>
+                  <c:v>5.0810393619758172E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,7 +1196,7 @@
                   <c:v>9.8104793756967675E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.571070234113712E-3</c:v>
+                  <c:v>6.0568561872909694E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DCFB86-6E5F-4CE4-95BD-C8158E010CD5}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3720,19 +3723,19 @@
         <v>299</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <f t="shared" si="12"/>
-        <v>1378</v>
+        <v>1823</v>
       </c>
       <c r="D37">
         <f t="shared" si="13"/>
-        <v>12558</v>
+        <v>15548</v>
       </c>
       <c r="E37">
         <f t="shared" si="14"/>
-        <v>11960</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3918,28 +3921,28 @@
       </c>
       <c r="C46">
         <f t="shared" si="15"/>
-        <v>5.4136429608127715E-2</v>
+        <v>4.0921557871640153E-2</v>
       </c>
       <c r="D46">
         <v>26.4</v>
       </c>
       <c r="E46">
         <f t="shared" si="16"/>
-        <v>5.341074020319303E-2</v>
+        <v>4.0373011519473395E-2</v>
       </c>
       <c r="F46">
         <v>21</v>
       </c>
       <c r="G46">
         <f t="shared" si="17"/>
-        <v>6.2908106386367259E-3</v>
+        <v>5.0810393619758172E-3</v>
       </c>
       <c r="H46">
         <v>9.4499999999999993</v>
       </c>
       <c r="I46">
         <f t="shared" si="18"/>
-        <v>7.571070234113712E-3</v>
+        <v>6.0568561872909694E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4049,19 +4052,19 @@
       </c>
       <c r="B54">
         <f t="shared" si="19"/>
-        <v>5.4136429608127715E-2</v>
+        <v>4.0921557871640153E-2</v>
       </c>
       <c r="C54">
         <f t="shared" si="20"/>
-        <v>5.341074020319303E-2</v>
+        <v>4.0373011519473395E-2</v>
       </c>
       <c r="D54">
         <f t="shared" si="21"/>
-        <v>6.2908106386367259E-3</v>
+        <v>5.0810393619758172E-3</v>
       </c>
       <c r="E54">
         <f t="shared" si="22"/>
-        <v>7.571070234113712E-3</v>
+        <v>6.0568561872909694E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4072,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E29B431-2539-4C5B-BDEF-F80775154597}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4083,7 +4086,7 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4099,8 +4102,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>200</v>
       </c>
@@ -4108,8 +4114,8 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <f>0.5*(B2-1)*B2+2*A2</f>
-        <v>401</v>
+        <f>0.5*(B2-1)*B2+B2+2*A2</f>
+        <v>403</v>
       </c>
       <c r="D2">
         <f>E2+2*A2</f>
@@ -4119,8 +4125,12 @@
         <f>A2*B2</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>E2+0.5*(B2-1)*B2+B2</f>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4128,8 +4138,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="0">0.5*(B3-1)*B3+2*A3</f>
-        <v>403</v>
+        <f t="shared" ref="C3:C21" si="0">0.5*(B3-1)*B3+B3+2*A3</f>
+        <v>406</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D10" si="1">E3+2*A3</f>
@@ -4139,8 +4149,12 @@
         <f t="shared" ref="E3:E8" si="2">A3*B3</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="3">E3+0.5*(B3-1)*B3+B3</f>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
@@ -4149,7 +4163,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
@@ -4159,165 +4173,441 @@
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>200</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>610</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>200</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>590</v>
+        <v>1220</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>4400</v>
+        <v>8400</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>200</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>505</v>
+        <v>2230</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>3400</v>
+        <v>12400</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>13830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>200</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <f>0.5*(B9-1)*B9+2*A9</f>
-        <v>835</v>
+        <f t="shared" si="0"/>
+        <v>3640</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>6400</v>
+        <v>16400</v>
       </c>
       <c r="E9">
         <f>A9*B9</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>19240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>200</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <f>0.5*(B10-1)*B10+2*A10</f>
-        <v>1180</v>
+        <f t="shared" si="0"/>
+        <v>5450</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>8400</v>
+        <v>20400</v>
       </c>
       <c r="E10">
         <f>A10*B10</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>25050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>200</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C11">
-        <f>0.5*(B11-1)*B11+2*A11</f>
-        <v>3560</v>
+        <f t="shared" si="0"/>
+        <v>7660</v>
       </c>
       <c r="D11">
         <f>E11+2*A11</f>
-        <v>16400</v>
+        <v>24400</v>
       </c>
       <c r="E11">
         <f>A11*B11</f>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>31260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>200</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C12">
-        <f>0.5*(B12-1)*B12+2*A12</f>
-        <v>5350</v>
+        <f t="shared" si="0"/>
+        <v>10270</v>
       </c>
       <c r="D12">
         <f>E12+2*A12</f>
-        <v>20400</v>
+        <v>28400</v>
       </c>
       <c r="E12">
         <f>A12*B12</f>
-        <v>20000</v>
+        <v>28000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>37870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>160</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>13280</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D21" si="4">E13+2*A13</f>
+        <v>32400</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E21" si="5">A13*B13</f>
+        <v>32000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>16690</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>36400</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>36000</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>52290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>20500</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>40400</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>60100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10270</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>28400</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>28000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>37870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>11725</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>30400</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>30000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>41325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>160</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>13280</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>32400</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>32000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>170</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>14935</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>34400</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>34000</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>48535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>180</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>16690</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>36400</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>36000</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>52290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>20500</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>40400</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>60100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
